--- a/Bibsam_tidskriftslistor/scifree_data_emerald.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_emerald.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="4" documentId="11_81A6726B574B64009C84A192F26B363B473375DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7D36B8-1011-402C-A3EB-5F296104A3AE}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="660" windowWidth="11850" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G391"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bibsam_tidskriftslistor/scifree_data_emerald.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_emerald.xlsx
@@ -3916,7 +3916,7 @@
   <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
